--- a/3_Implementation/src/MasterSheet.xlsx
+++ b/3_Implementation/src/MasterSheet.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,16 +385,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PS number</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Display Name</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Official Email Address</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Python Solo Learn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hackerrank Score</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Practice project</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mini Project (50)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Code Quality</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Repo Score</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Design Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jasleen Kaur Sethi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jasleen.sethi@ltts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>405</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
--- a/3_Implementation/src/MasterSheet.xlsx
+++ b/3_Implementation/src/MasterSheet.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:M6"/>
+  <dimension ref="A4:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -416,83 +416,177 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Python Solo Learn</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hackerrank Score</t>
+          <t>Software Install</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Practice project</t>
+          <t>Assignment 1 (30)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mini Project (50)</t>
+          <t>Assignment 2(30)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Code Quality</t>
+          <t>Code quality</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Repo Score</t>
+          <t>college</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Design Quality</t>
+          <t>Git Repo Score(40)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99003720</v>
+        <v>99003726</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jasleen Kaur Sethi</t>
+          <t>Abhishek Guria</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jasleen.sethi@ltts.com</t>
+          <t>abhishek.guria@ltts.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>405</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+      <c r="F6" t="n">
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Abc</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PS number</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Display Name</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Official Email Address</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>System setup</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Assignment 1 (score 25)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Individual Assignment 2 (score 25)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Group Project score(25)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Git Repo score(15)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MCQ Score (25)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Code Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>99003726</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abhishek Guria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>abhishek.guria@ltts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/3_Implementation/src/MasterSheet.xlsx
+++ b/3_Implementation/src/MasterSheet.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:K11"/>
+  <dimension ref="A4:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -416,178 +416,176 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Embedded Task Score(25)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Software Install</t>
+          <t>Test case</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Assignment 1 (30)</t>
+          <t>plagrisim</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Assignment 2(30)</t>
+          <t xml:space="preserve">training </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Code quality</t>
+          <t>total marks</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>Hardware Connection(30)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Git Repo Score(40)</t>
+          <t>Video Score(20)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99003726</v>
+        <v>99003721</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abhishek Guria</t>
+          <t>Himanshu Kumar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abhishek.guria@ltts.com</t>
-        </is>
+          <t>himanshu.kumar@ltts.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Abc</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PS number</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Display Name</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Official Email Address</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Software Install</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Assignment 1 (30)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Assignment 2(30)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Code quality</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Git Repo Score(40)</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PS number</t>
-        </is>
+      <c r="A9" t="n">
+        <v>99003721</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Display Name</t>
+          <t>Himanshu Kumar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Official Email Address</t>
+          <t>himanshu.kumar@ltts.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>System setup</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Assignment 1 (score 25)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Individual Assignment 2 (score 25)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Group Project score(25)</t>
-        </is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Git Repo score(15)</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MCQ Score (25)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Code Quality</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>99003726</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Abhishek Guria</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>abhishek.guria@ltts.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
+          <t>kiit</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/3_Implementation/src/MasterSheet.xlsx
+++ b/3_Implementation/src/MasterSheet.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:J9"/>
+  <dimension ref="A4:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -416,175 +416,81 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Embedded Task Score(25)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Test case</t>
+          <t>Software Install</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>plagrisim</t>
+          <t>Assignment 1 (30)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">training </t>
+          <t>Assignment 2(30)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>total marks</t>
+          <t>Code quality</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hardware Connection(30)</t>
+          <t>college</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Video Score(20)</t>
+          <t>Git Repo Score(40)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99003721</v>
+        <v>99003733</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Himanshu Kumar</t>
+          <t>Aditya Mewara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>himanshu.kumar@ltts.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
+          <t>aditya.mewara@ltts.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>kiit</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PS number</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Display Name</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Official Email Address</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Software Install</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Assignment 1 (30)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Assignment 2(30)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Code quality</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Git Repo Score(40)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>99003721</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Himanshu Kumar</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>himanshu.kumar@ltts.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>27</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>kiit</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
         <v>35</v>
       </c>
     </row>
